--- a/P&E/PDF/Inferencial/Clase 11 (Chi Cuadrada).xlsx
+++ b/P&E/PDF/Inferencial/Clase 11 (Chi Cuadrada).xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\PDF\Inferencial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97371B76-F52C-4F35-91B4-A74B8AC9FA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C35CBF-10C7-4550-88B0-0E78E8441126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="DrMacias" sheetId="1" r:id="rId1"/>
+    <sheet name="Color" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
   <si>
     <t>CONCEPTOS</t>
   </si>
@@ -300,14 +301,71 @@
     <t>Conclusión: esto no es suerte, es algo que se le puede atribuir al medicamento</t>
   </si>
   <si>
-    <t>P = 2,6%</t>
+    <t>En dos ciudades, A y B, se observó el color del pelo y de los ojos de sus habitantes, encontrándose las siguientes tablas:</t>
+  </si>
+  <si>
+    <t>Ciudad A</t>
+  </si>
+  <si>
+    <t>Cabello</t>
+  </si>
+  <si>
+    <t>Ojos</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>No Azul</t>
+  </si>
+  <si>
+    <t>Rubio</t>
+  </si>
+  <si>
+    <t>No Rubio</t>
+  </si>
+  <si>
+    <t>Ciudad B</t>
+  </si>
+  <si>
+    <t>Hallar los coeficientes de contingencia de las dos ciudades.</t>
+  </si>
+  <si>
+    <t>¿En cuál de las dos ciudades podemos afirmar que hay mayor dependencia entre el color del pelo y de los ojos?</t>
+  </si>
+  <si>
+    <t>RUBIO</t>
+  </si>
+  <si>
+    <t>NO RUBIO</t>
+  </si>
+  <si>
+    <t>AZUL</t>
+  </si>
+  <si>
+    <t>NO AZUL</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>FÓRMULA &gt;</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +450,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -401,7 +488,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -489,11 +576,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -511,9 +627,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -550,43 +663,130 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -616,8 +816,8 @@
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2228302" cy="711670"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -659,6 +859,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -788,7 +989,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -1124,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24:Z24"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1339,7 @@
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="2.42578125" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.42578125" style="14" customWidth="1"/>
+    <col min="16" max="16" width="2.42578125" style="13" customWidth="1"/>
     <col min="17" max="17" width="16.7109375" customWidth="1"/>
     <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="26" width="4.7109375" customWidth="1"/>
@@ -1157,7 +1358,7 @@
       <c r="T1" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" s="14"/>
+      <c r="AA1" s="13"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1169,7 +1370,7 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="14"/>
+      <c r="AA2" s="13"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1181,24 +1382,24 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="T3" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="U3" s="28" t="s">
+      <c r="U3" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="30" t="str">
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="27" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="31">
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="32">
         <f>O8*I14/$O$14</f>
         <v>16</v>
       </c>
-      <c r="AA3" s="14"/>
+      <c r="AA3" s="13"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1210,20 +1411,20 @@
       <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="30"/>
-      <c r="U4" s="29">
+      <c r="T4" s="27"/>
+      <c r="U4" s="33">
         <v>150</v>
       </c>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="14"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="13"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="AA5" s="14"/>
+      <c r="AA5" s="13"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1232,140 +1433,140 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="30" t="s">
+      <c r="T6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="U6" s="28" t="s">
+      <c r="U6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="30" t="str">
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="27" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="31">
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="32">
         <f>50*102/$O$14</f>
         <v>34</v>
       </c>
-      <c r="AA6" s="14"/>
+      <c r="AA6" s="13"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="18" t="s">
+      <c r="I7" s="14"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="15"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="29">
+      <c r="L7" s="14"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="14"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="33">
         <v>150</v>
       </c>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="14"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="13"/>
     </row>
     <row r="8" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17" t="s">
+      <c r="H8" s="15"/>
+      <c r="I8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17" t="s">
+      <c r="J8" s="11"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="O8" s="17">
+      <c r="M8" s="11"/>
+      <c r="O8" s="16">
         <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AA8" s="14"/>
+      <c r="AA8" s="13"/>
     </row>
     <row r="9" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="19" t="s">
+      <c r="H9" s="10"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="19"/>
-      <c r="T9" s="30" t="s">
+      <c r="L9" s="12"/>
+      <c r="M9" s="18"/>
+      <c r="T9" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="U9" s="28" t="s">
+      <c r="U9" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="30" t="str">
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="27" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="31">
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="32">
         <f>100*48/$O$14</f>
         <v>32</v>
       </c>
-      <c r="AA9" s="14"/>
+      <c r="AA9" s="13"/>
     </row>
     <row r="10" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="23" t="s">
+      <c r="I10" s="14"/>
+      <c r="J10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="15"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="29">
+      <c r="M10" s="9"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="14"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="33">
         <v>150</v>
       </c>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="14"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="13"/>
     </row>
     <row r="11" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
@@ -1374,83 +1575,83 @@
       <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17" t="s">
+      <c r="J11" s="11"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="12"/>
-      <c r="O11" s="17">
+      <c r="M11" s="11"/>
+      <c r="O11" s="16">
         <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AA11" s="14"/>
+      <c r="AA11" s="13"/>
     </row>
     <row r="12" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="11"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="19"/>
-      <c r="T12" s="30" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="18"/>
+      <c r="T12" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="28" t="s">
+      <c r="U12" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="30" t="str">
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="27" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="31">
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="32">
         <f>100*102/$O$14</f>
         <v>68</v>
       </c>
-      <c r="AA12" s="14"/>
+      <c r="AA12" s="13"/>
     </row>
     <row r="13" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="15"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="29">
+      <c r="H13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="14"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="33">
         <v>150</v>
       </c>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="14"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="13"/>
     </row>
     <row r="14" spans="1:27" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="H14" s="16"/>
-      <c r="I14" s="17">
+      <c r="H14" s="15"/>
+      <c r="I14" s="16">
         <v>48</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17">
+      <c r="K14" s="15"/>
+      <c r="L14" s="16">
         <v>102</v>
       </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="17">
+      <c r="N14" s="15"/>
+      <c r="O14" s="16">
         <v>150</v>
       </c>
     </row>
@@ -1458,244 +1659,249 @@
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
       <c r="S15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
     </row>
     <row r="17" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="S17" s="30" t="str">
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="S17" s="27" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="T17" s="32">
+      <c r="T17" s="25">
         <f>(10-16)^2</f>
         <v>36</v>
       </c>
-      <c r="U17" s="30" t="s">
+      <c r="U17" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="V17" s="32">
+      <c r="V17" s="25">
         <f>(40-34)^2</f>
         <v>36</v>
       </c>
-      <c r="W17" s="30" t="s">
+      <c r="W17" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="X17" s="32">
+      <c r="X17" s="25">
         <f>(38-32)^2</f>
         <v>36</v>
       </c>
-      <c r="Y17" s="30" t="s">
+      <c r="Y17" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="Z17" s="32">
+      <c r="Z17" s="25">
         <f>(62-68)^2</f>
         <v>36</v>
       </c>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
     </row>
     <row r="18" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="33">
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="26">
         <v>16</v>
       </c>
-      <c r="U18" s="30"/>
-      <c r="V18" s="33">
+      <c r="U18" s="27"/>
+      <c r="V18" s="26">
         <v>34</v>
       </c>
-      <c r="W18" s="30"/>
-      <c r="X18" s="33">
+      <c r="W18" s="27"/>
+      <c r="X18" s="26">
         <v>32</v>
       </c>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="33">
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="26">
         <v>68</v>
       </c>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
     </row>
     <row r="19" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="S20" s="33" t="str">
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="S20" s="26" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="T20" s="33">
+      <c r="T20" s="26">
         <f>T17/T18</f>
         <v>2.25</v>
       </c>
-      <c r="U20" s="33" t="s">
+      <c r="U20" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="V20" s="33">
+      <c r="V20" s="26">
         <f>V17/V18</f>
         <v>1.0588235294117647</v>
       </c>
-      <c r="W20" s="33" t="s">
+      <c r="W20" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="X20" s="33">
+      <c r="X20" s="26">
         <f>X17/X18</f>
         <v>1.125</v>
       </c>
-      <c r="Y20" s="33" t="s">
+      <c r="Y20" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="Z20" s="33">
+      <c r="Z20" s="26">
         <f>Z17/Z18</f>
         <v>0.52941176470588236</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="H22" s="27" t="s">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="H22" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="S22" s="33" t="str">
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="S22" s="26" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="T22" s="35">
+      <c r="T22" s="29">
         <f>SUM(T20:Z20)</f>
         <v>4.9632352941176467</v>
       </c>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22">
+        <f>CHIDIST(T22,1)</f>
+        <v>2.5891721975398505E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
       <c r="S24" t="s">
         <v>50</v>
       </c>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="37" t="s">
-        <v>53</v>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="59">
+        <f>AA22</f>
+        <v>2.5891721975398505E-2</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
@@ -1704,33 +1910,50 @@
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="S28" s="34" t="s">
+      <c r="S28" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="34"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A21:E24"/>
+    <mergeCell ref="H16:Q18"/>
+    <mergeCell ref="H20:Q21"/>
+    <mergeCell ref="H22:Q24"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="X3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="U7:W7"/>
     <mergeCell ref="Y17:Y18"/>
     <mergeCell ref="S28:AB29"/>
     <mergeCell ref="T22:Z22"/>
@@ -1745,27 +1968,672 @@
     <mergeCell ref="X12:Y13"/>
     <mergeCell ref="Z12:Z13"/>
     <mergeCell ref="U13:W13"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="X3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="A21:E24"/>
-    <mergeCell ref="H16:Q18"/>
-    <mergeCell ref="H20:Q21"/>
-    <mergeCell ref="H22:Q24"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="W17:W18"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5661869-E99E-4CB9-9A74-F6D30B657187}">
+  <dimension ref="A1:R33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="5" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="40"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="42"/>
+    </row>
+    <row r="8" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+      <c r="D8" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="J8" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="42"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="49">
+        <v>47</v>
+      </c>
+      <c r="E9" s="49">
+        <v>23</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="46"/>
+      <c r="J9" s="49">
+        <v>54</v>
+      </c>
+      <c r="K9" s="49">
+        <v>30</v>
+      </c>
+      <c r="L9" s="42"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="50"/>
+      <c r="B10" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="49">
+        <v>31</v>
+      </c>
+      <c r="E10" s="49">
+        <v>93</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="46"/>
+      <c r="J10" s="49">
+        <v>42</v>
+      </c>
+      <c r="K10" s="49">
+        <v>80</v>
+      </c>
+      <c r="L10" s="42"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="42"/>
+    </row>
+    <row r="12" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="42"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C16" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="20">
+        <f>I18*C24/I24</f>
+        <v>28.144329896907216</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="20">
+        <f>I18*F24/I24</f>
+        <v>41.855670103092784</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="14"/>
+      <c r="M17" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17" s="61">
+        <f>R18*O21/R21</f>
+        <v>39.145631067961162</v>
+      </c>
+      <c r="P17" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q17" s="61">
+        <f>R18*Q21/R21</f>
+        <v>44.854368932038838</v>
+      </c>
+      <c r="R17" s="14"/>
+    </row>
+    <row r="18" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="16">
+        <v>47</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="16">
+        <v>23</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="I18" s="16">
+        <f>C18+F18</f>
+        <v>70</v>
+      </c>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="O18" s="63">
+        <v>54</v>
+      </c>
+      <c r="P18" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q18" s="63">
+        <v>30</v>
+      </c>
+      <c r="R18" s="16">
+        <f>O18+Q18</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="18"/>
+      <c r="M19" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="N19" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" s="61">
+        <f>R20*O21/R21</f>
+        <v>56.854368932038838</v>
+      </c>
+      <c r="P19" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q19" s="61">
+        <f>R20*Q21/R21</f>
+        <v>65.145631067961162</v>
+      </c>
+      <c r="R19" s="14"/>
+    </row>
+    <row r="20" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="20">
+        <f>I21*C24/I24</f>
+        <v>49.855670103092784</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="20">
+        <f>I21*F24/I24</f>
+        <v>74.144329896907223</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="14"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="63">
+        <v>42</v>
+      </c>
+      <c r="P20" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q20" s="63">
+        <v>80</v>
+      </c>
+      <c r="R20" s="64">
+        <f>O20+Q20</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="16">
+        <v>31</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="16">
+        <v>93</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="I21" s="16">
+        <f>C21+F21</f>
+        <v>124</v>
+      </c>
+      <c r="K21" s="58"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="16">
+        <f>O18+O20</f>
+        <v>96</v>
+      </c>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="65">
+        <f>Q18+Q20</f>
+        <v>110</v>
+      </c>
+      <c r="R21" s="16">
+        <f>R18+R20</f>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="18"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="16">
+        <f>C18+C21</f>
+        <v>78</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16">
+        <f>F18+F21</f>
+        <v>116</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16">
+        <f>I18+I21</f>
+        <v>194</v>
+      </c>
+      <c r="M24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="N25" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25">
+        <f>(O18-O17)^2/O17</f>
+        <v>5.636702496532596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="N26" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26">
+        <f>(Q18-Q17)^2/Q17</f>
+        <v>4.919303996973901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <f>(C18-C17)^2/C17</f>
+        <v>12.632608285185604</v>
+      </c>
+      <c r="N27" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27">
+        <f>(O20-O19)^2/O19</f>
+        <v>3.8810082763011313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <f>(F18-F17)^2/F17</f>
+        <v>8.4943400538316993</v>
+      </c>
+      <c r="N28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28">
+        <f>(Q20-Q19)^2/Q19</f>
+        <v>3.3870617684082602</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <f>(C21-C20)^2/C20</f>
+        <v>7.1313111287338087</v>
+      </c>
+      <c r="M29" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <f>SUM(O25:O28)</f>
+        <v>17.824076538215888</v>
+      </c>
+      <c r="P29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <f>SQRT(O29)</f>
+        <v>4.2218570011567049</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <f>(F21-F20)^2/F20</f>
+        <v>4.7951919658727302</v>
+      </c>
+      <c r="M30" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="N30" t="s">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <f>CHIDIST(Q29,1)</f>
+        <v>3.9906463368412477E-2</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="60">
+        <f>O30</f>
+        <v>3.9906463368412477E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f>SUM(C27:C30)</f>
+        <v>33.053451433623842</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f>SQRT(C31)</f>
+        <v>5.7492131142986729</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f>CHIDIST(F31,1)</f>
+        <v>1.6496044125024825E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="60">
+        <f>F32</f>
+        <v>1.6496044125024825E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C13:L14"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/P&E/PDF/Inferencial/Clase 11 (Chi Cuadrada).xlsx
+++ b/P&E/PDF/Inferencial/Clase 11 (Chi Cuadrada).xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\PDF\Inferencial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C35CBF-10C7-4550-88B0-0E78E8441126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07D9F2C-E502-4238-B58A-8AA03B5BF829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DrMacias" sheetId="1" r:id="rId1"/>
     <sheet name="Color" sheetId="2" r:id="rId2"/>
+    <sheet name="Apunte" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="91">
   <si>
     <t>CONCEPTOS</t>
   </si>
@@ -360,12 +361,172 @@
   <si>
     <t>P</t>
   </si>
+  <si>
+    <t>Límites de clase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frecuencias Observadas </t>
+  </si>
+  <si>
+    <t>Menor que 1.75</t>
+  </si>
+  <si>
+    <t>De 1.75 a 2.25</t>
+  </si>
+  <si>
+    <t>De 2.25 a 2.75</t>
+  </si>
+  <si>
+    <t>De 2.75 a 3.25</t>
+  </si>
+  <si>
+    <t>De 3.25 a 3.75</t>
+  </si>
+  <si>
+    <t>De 3.75 a 4.25</t>
+  </si>
+  <si>
+    <t>De 4.25 a 4.75</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pruebe la hipótesis de que la distribución de frecuencia de las duraciones de baterías para  notebooks  dadas  en  la  siguiente  tabla. Se  puede  aproximar  mediante  una distribución normal con media </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 3.5 y desviación estándar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 0.7. Utilice un </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 0.05</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sea  X : “Tiempo de duración de las baterías” </t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Plantear Hipótesis:</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>X = N(3.5, 0,49)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">X </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> N(3.5, 0,49)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Estadístico de prueba:  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +639,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -609,7 +790,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -672,38 +853,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -719,15 +870,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -735,9 +877,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -780,15 +919,79 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1058,6 +1261,17 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{30804A57-E2AE-4F57-AEFD-9A9785CA5A32}" name="Tabla1" displayName="Tabla1" ref="C6:E13" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="3" xr3:uid="{963123AB-6D79-42E1-9A02-F1A649C92C6F}" name="i" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AF737F89-CF02-489F-941D-8130221FD8A9}" name="Límites de clase" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{71358679-F0AF-4773-8FF9-D056E6539483}" name="Frecuencias Observadas " dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1382,20 +1596,20 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="27" t="s">
+      <c r="T3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="U3" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="27" t="str">
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="56" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="32">
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="58">
         <f>O8*I14/$O$14</f>
         <v>16</v>
       </c>
@@ -1411,15 +1625,15 @@
       <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="33">
+      <c r="T4" s="56"/>
+      <c r="U4" s="57">
         <v>150</v>
       </c>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="32"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="58"/>
       <c r="AA4" s="13"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -1439,20 +1653,20 @@
       <c r="L6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="27" t="s">
+      <c r="T6" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="U6" s="31" t="s">
+      <c r="U6" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="27" t="str">
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="56" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="32">
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="58">
         <f>50*102/$O$14</f>
         <v>34</v>
       </c>
@@ -1471,15 +1685,15 @@
       <c r="M7" s="9"/>
       <c r="N7" s="8"/>
       <c r="O7" s="14"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="33">
+      <c r="T7" s="56"/>
+      <c r="U7" s="57">
         <v>150</v>
       </c>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="32"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="58"/>
       <c r="AA7" s="13"/>
     </row>
     <row r="8" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
@@ -1521,20 +1735,20 @@
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="18"/>
-      <c r="T9" s="27" t="s">
+      <c r="T9" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="U9" s="31" t="s">
+      <c r="U9" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="27" t="str">
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="56" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="32">
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="58">
         <f>100*48/$O$14</f>
         <v>32</v>
       </c>
@@ -1557,15 +1771,15 @@
       <c r="M10" s="9"/>
       <c r="N10" s="8"/>
       <c r="O10" s="14"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="33">
+      <c r="T10" s="56"/>
+      <c r="U10" s="57">
         <v>150</v>
       </c>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="32"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="58"/>
       <c r="AA10" s="13"/>
     </row>
     <row r="11" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
@@ -1603,20 +1817,20 @@
       <c r="K12" s="10"/>
       <c r="L12" s="12"/>
       <c r="M12" s="18"/>
-      <c r="T12" s="27" t="s">
+      <c r="T12" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="31" t="s">
+      <c r="U12" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="27" t="str">
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="56" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="32">
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="58">
         <f>100*102/$O$14</f>
         <v>68</v>
       </c>
@@ -1630,15 +1844,15 @@
       <c r="K13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="14"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="33">
+      <c r="T13" s="56"/>
+      <c r="U13" s="57">
         <v>150</v>
       </c>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="32"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="58"/>
       <c r="AA13" s="13"/>
     </row>
     <row r="14" spans="1:27" ht="28.5" x14ac:dyDescent="0.25">
@@ -1672,31 +1886,31 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
     </row>
     <row r="17" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="S17" s="27" t="str">
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="S17" s="56" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
@@ -1704,21 +1918,21 @@
         <f>(10-16)^2</f>
         <v>36</v>
       </c>
-      <c r="U17" s="27" t="s">
+      <c r="U17" s="56" t="s">
         <v>49</v>
       </c>
       <c r="V17" s="25">
         <f>(40-34)^2</f>
         <v>36</v>
       </c>
-      <c r="W17" s="27" t="s">
+      <c r="W17" s="56" t="s">
         <v>49</v>
       </c>
       <c r="X17" s="25">
         <f>(38-32)^2</f>
         <v>36</v>
       </c>
-      <c r="Y17" s="27" t="s">
+      <c r="Y17" s="56" t="s">
         <v>49</v>
       </c>
       <c r="Z17" s="25">
@@ -1729,29 +1943,29 @@
       <c r="AB17" s="26"/>
     </row>
     <row r="18" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="S18" s="27"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="S18" s="56"/>
       <c r="T18" s="26">
         <v>16</v>
       </c>
-      <c r="U18" s="27"/>
+      <c r="U18" s="56"/>
       <c r="V18" s="26">
         <v>34</v>
       </c>
-      <c r="W18" s="27"/>
+      <c r="W18" s="56"/>
       <c r="X18" s="26">
         <v>32</v>
       </c>
-      <c r="Y18" s="27"/>
+      <c r="Y18" s="56"/>
       <c r="Z18" s="26">
         <v>68</v>
       </c>
@@ -1760,18 +1974,18 @@
     </row>
     <row r="19" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
       <c r="S20" s="26" t="str">
         <f>"="</f>
         <v>=</v>
@@ -1803,103 +2017,103 @@
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="H22" s="36" t="s">
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="H22" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
       <c r="S22" s="26" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="T22" s="29">
+      <c r="T22" s="60">
         <f>SUM(T20:Z20)</f>
         <v>4.9632352941176467</v>
       </c>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="60"/>
       <c r="AA22">
         <f>CHIDIST(T22,1)</f>
         <v>2.5891721975398505E-2</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
     </row>
     <row r="24" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
       <c r="S24" t="s">
         <v>50</v>
       </c>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="59">
+      <c r="V24" s="61"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="61"/>
+      <c r="AA24" s="45">
         <f>AA22</f>
         <v>2.5891721975398505E-2</v>
       </c>
@@ -1910,50 +2124,33 @@
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="S28" s="28" t="s">
+      <c r="S28" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A21:E24"/>
-    <mergeCell ref="H16:Q18"/>
-    <mergeCell ref="H20:Q21"/>
-    <mergeCell ref="H22:Q24"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="X3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="U7:W7"/>
     <mergeCell ref="Y17:Y18"/>
     <mergeCell ref="S28:AB29"/>
     <mergeCell ref="T22:Z22"/>
@@ -1968,6 +2165,23 @@
     <mergeCell ref="X12:Y13"/>
     <mergeCell ref="Z12:Z13"/>
     <mergeCell ref="U13:W13"/>
+    <mergeCell ref="X3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="A21:E24"/>
+    <mergeCell ref="H16:Q18"/>
+    <mergeCell ref="H20:Q21"/>
+    <mergeCell ref="H22:Q24"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -1980,7 +2194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5661869-E99E-4CB9-9A74-F6D30B657187}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
@@ -2010,219 +2224,219 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="41" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44" t="s">
+      <c r="A7" s="30"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="40"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44" t="s">
+      <c r="E7" s="65"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="30"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="42"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:17" ht="48" x14ac:dyDescent="0.25">
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="J8" s="47" t="s">
+      <c r="F8" s="30"/>
+      <c r="J8" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="48" t="s">
+      <c r="K8" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="42"/>
+      <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="49">
+      <c r="C9" s="67"/>
+      <c r="D9" s="36">
         <v>47</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="36">
         <v>23</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="50" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="49">
+      <c r="I9" s="67"/>
+      <c r="J9" s="36">
         <v>54</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="36">
         <v>30</v>
       </c>
-      <c r="L9" s="42"/>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="64"/>
+      <c r="B10" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="49">
+      <c r="C10" s="67"/>
+      <c r="D10" s="36">
         <v>31</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="36">
         <v>93</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="45" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="46"/>
-      <c r="J10" s="49">
+      <c r="I10" s="67"/>
+      <c r="J10" s="36">
         <v>42</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="36">
         <v>80</v>
       </c>
-      <c r="L10" s="42"/>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="42"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="42"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="38" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C16" s="23" t="s">
@@ -2239,7 +2453,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="42" t="s">
         <v>68</v>
       </c>
       <c r="C17" s="20">
@@ -2247,7 +2461,7 @@
         <v>28.144329896907216</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="42" t="s">
         <v>68</v>
       </c>
       <c r="F17" s="20">
@@ -2257,20 +2471,20 @@
       <c r="G17" s="9"/>
       <c r="H17" s="8"/>
       <c r="I17" s="14"/>
-      <c r="M17" s="66" t="s">
+      <c r="M17" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="56" t="s">
+      <c r="N17" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="O17" s="61">
+      <c r="O17" s="47">
         <f>R18*O21/R21</f>
         <v>39.145631067961162</v>
       </c>
-      <c r="P17" s="56" t="s">
+      <c r="P17" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q17" s="61">
+      <c r="Q17" s="47">
         <f>R18*Q21/R21</f>
         <v>44.854368932038838</v>
       </c>
@@ -2280,14 +2494,14 @@
       <c r="A18" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="16">
         <v>47</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="43" t="s">
         <v>69</v>
       </c>
       <c r="F18" s="16">
@@ -2298,19 +2512,19 @@
         <f>C18+F18</f>
         <v>70</v>
       </c>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="62" t="s">
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="O18" s="63">
+      <c r="O18" s="49">
         <v>54</v>
       </c>
-      <c r="P18" s="62" t="s">
+      <c r="P18" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="Q18" s="63">
+      <c r="Q18" s="49">
         <v>30</v>
       </c>
       <c r="R18" s="16">
@@ -2329,27 +2543,27 @@
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="18"/>
-      <c r="M19" s="66" t="s">
+      <c r="M19" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="N19" s="56" t="s">
+      <c r="N19" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="O19" s="61">
+      <c r="O19" s="47">
         <f>R20*O21/R21</f>
         <v>56.854368932038838</v>
       </c>
-      <c r="P19" s="56" t="s">
+      <c r="P19" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q19" s="61">
+      <c r="Q19" s="47">
         <f>R20*Q21/R21</f>
         <v>65.145631067961162</v>
       </c>
       <c r="R19" s="14"/>
     </row>
     <row r="20" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="42" t="s">
         <v>68</v>
       </c>
       <c r="C20" s="20">
@@ -2359,7 +2573,7 @@
       <c r="D20" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="41" t="s">
         <v>68</v>
       </c>
       <c r="F20" s="20">
@@ -2369,20 +2583,20 @@
       <c r="G20" s="9"/>
       <c r="H20" s="8"/>
       <c r="I20" s="14"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="62" t="s">
+      <c r="M20" s="63"/>
+      <c r="N20" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="O20" s="63">
+      <c r="O20" s="49">
         <v>42</v>
       </c>
-      <c r="P20" s="62" t="s">
+      <c r="P20" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="Q20" s="63">
+      <c r="Q20" s="49">
         <v>80</v>
       </c>
-      <c r="R20" s="64">
+      <c r="R20" s="50">
         <f>O20+Q20</f>
         <v>122</v>
       </c>
@@ -2391,14 +2605,14 @@
       <c r="A21" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C21" s="16">
         <v>31</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="43" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="16">
@@ -2409,14 +2623,14 @@
         <f>C21+F21</f>
         <v>124</v>
       </c>
-      <c r="K21" s="58"/>
+      <c r="K21" s="44"/>
       <c r="N21" s="15"/>
       <c r="O21" s="16">
         <f>O18+O20</f>
         <v>96</v>
       </c>
       <c r="P21" s="15"/>
-      <c r="Q21" s="65">
+      <c r="Q21" s="51">
         <f>Q18+Q20</f>
         <v>110</v>
       </c>
@@ -2533,7 +2747,7 @@
         <f>(C21-C20)^2/C20</f>
         <v>7.1313111287338087</v>
       </c>
-      <c r="M29" s="37" t="s">
+      <c r="M29" s="28" t="s">
         <v>71</v>
       </c>
       <c r="N29" t="s">
@@ -2559,7 +2773,7 @@
         <f>(F21-F20)^2/F20</f>
         <v>4.7951919658727302</v>
       </c>
-      <c r="M30" s="37" t="s">
+      <c r="M30" s="28" t="s">
         <v>72</v>
       </c>
       <c r="N30" t="s">
@@ -2572,13 +2786,13 @@
       <c r="P30" t="s">
         <v>1</v>
       </c>
-      <c r="Q30" s="60">
+      <c r="Q30" s="46">
         <f>O30</f>
         <v>3.9906463368412477E-2</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="28" t="s">
         <v>71</v>
       </c>
       <c r="B31" t="s">
@@ -2597,7 +2811,7 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="28" t="s">
         <v>72</v>
       </c>
       <c r="B32" t="s">
@@ -2612,13 +2826,16 @@
       <c r="H33" t="s">
         <v>1</v>
       </c>
-      <c r="I33" s="60">
+      <c r="I33" s="46">
         <f>F32</f>
         <v>1.6496044125024825E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="C13:L14"/>
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="M19:M20"/>
@@ -2628,12 +2845,195 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55611149-D514-46A3-89BC-178F7C7E0C18}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C6" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="27">
+        <v>1</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="27">
+        <v>2</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="27">
+        <v>3</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="27">
+        <v>4</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="27">
+        <v>5</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="27">
+        <v>6</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="27">
+        <v>7</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>